--- a/doc/数据格式/导入配方格式.xlsx
+++ b/doc/数据格式/导入配方格式.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作文件-网站建设\OA\素材\数据结构（产品列表用）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\huaxia\doc\数据格式\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="105">
   <si>
     <t>序号</t>
   </si>
@@ -328,12 +328,20 @@
   </si>
   <si>
     <t>原料21  人参(PANAX GINSENG)提取物：是国家食品药品监督管理总局通告(2015年第105号)附件《已使用化妆品原料名称名录(2015版)》第05486号原料。整株提取物。</t>
+  </si>
+  <si>
+    <t>配方序号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>配方名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -446,6 +454,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -454,15 +471,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,7 +490,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -557,23 +565,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -609,23 +600,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -802,1311 +776,1321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:G64"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.75" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="30.75" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="24">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="4">
-        <v>28.549700000000001</v>
-      </c>
-      <c r="E2" s="4">
-        <v>100</v>
       </c>
       <c r="F2" s="4">
         <v>28.549700000000001</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4">
+        <v>100</v>
+      </c>
+      <c r="H2" s="4">
+        <v>28.549700000000001</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="10">
+    <row r="3" spans="1:9">
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11">
+      <c r="F3" s="8">
         <v>17.5</v>
       </c>
-      <c r="E3" s="4">
+      <c r="G3" s="4">
         <v>57</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
         <v>9.9749999999999996</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:9">
+      <c r="C4" s="7"/>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="4">
+      <c r="F4" s="8"/>
+      <c r="G4" s="4">
         <v>40</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="4">
         <v>7</v>
       </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3" t="s">
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" s="7"/>
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="4">
+      <c r="F5" s="8"/>
+      <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="3" t="s">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="7"/>
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="4">
+      <c r="F6" s="8"/>
+      <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="3" t="s">
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" s="7"/>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="4">
+      <c r="F7" s="8"/>
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="H7" s="4">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="4">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4">
-        <v>100</v>
       </c>
       <c r="F8" s="4">
         <v>17</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4">
+        <v>100</v>
+      </c>
+      <c r="H8" s="4">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="10">
+    <row r="9" spans="1:9">
+      <c r="C9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11">
+      <c r="F9" s="8">
         <v>7.5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="G9" s="4">
         <v>98</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H9" s="4">
         <v>7.35</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="I9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:9">
+      <c r="C10" s="7"/>
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="4">
+      <c r="F10" s="8"/>
+      <c r="G10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
+      <c r="H10" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="3" t="s">
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="4">
+      <c r="F11" s="8"/>
+      <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="H11" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="10">
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11">
+      <c r="F12" s="8">
         <v>6</v>
       </c>
-      <c r="E12" s="4">
+      <c r="G12" s="4">
         <v>65</v>
       </c>
-      <c r="F12" s="4">
+      <c r="H12" s="4">
         <v>3.9</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="I12" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:9">
+      <c r="C13" s="7"/>
+      <c r="D13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="4">
+      <c r="F13" s="8"/>
+      <c r="G13" s="4">
         <v>30</v>
       </c>
-      <c r="F13" s="4">
+      <c r="H13" s="4">
         <v>1.8</v>
       </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="10"/>
-      <c r="B14" s="3" t="s">
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="C14" s="7"/>
+      <c r="D14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="4">
+      <c r="F14" s="8"/>
+      <c r="G14" s="4">
         <v>5</v>
       </c>
-      <c r="F14" s="4">
+      <c r="H14" s="4">
         <v>0.3</v>
       </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="C15" s="2">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="4">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4">
-        <v>100</v>
       </c>
       <c r="F15" s="4">
         <v>6</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4">
+        <v>100</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="10">
+    <row r="16" spans="1:9">
+      <c r="C16" s="7">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="11">
+      <c r="F16" s="8">
         <v>5.75</v>
       </c>
-      <c r="E16" s="4">
+      <c r="G16" s="4">
         <v>85</v>
       </c>
-      <c r="F16" s="4">
+      <c r="H16" s="4">
         <v>4.8875000000000002</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="I16" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="10"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="3:9">
+      <c r="C17" s="7"/>
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="4">
+      <c r="F17" s="8"/>
+      <c r="G17" s="4">
         <v>15</v>
       </c>
-      <c r="F17" s="4">
+      <c r="H17" s="4">
         <v>0.86250000000000004</v>
       </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="10">
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="7">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="11">
+      <c r="F18" s="8">
         <v>3.5</v>
       </c>
-      <c r="E18" s="4">
+      <c r="G18" s="4">
         <v>98</v>
       </c>
-      <c r="F18" s="4">
+      <c r="H18" s="4">
         <v>3.43</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="I18" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="10"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="3:9">
+      <c r="C19" s="7"/>
+      <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="4">
+      <c r="F19" s="8"/>
+      <c r="G19" s="4">
         <v>1</v>
       </c>
-      <c r="F19" s="4">
+      <c r="H19" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="10"/>
-      <c r="B20" s="3" t="s">
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="7"/>
+      <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="4">
+      <c r="F20" s="8"/>
+      <c r="G20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="4">
+      <c r="H20" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="2">
         <v>9</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4">
-        <v>100</v>
       </c>
       <c r="F21" s="4">
         <v>3</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="4">
+        <v>100</v>
+      </c>
+      <c r="H21" s="4">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="10">
+    <row r="22" spans="3:9">
+      <c r="C22" s="7">
         <v>10</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="11">
+      <c r="F22" s="8">
         <v>2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="G22" s="4">
         <v>52</v>
       </c>
-      <c r="F22" s="4">
+      <c r="H22" s="4">
         <v>1.04</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="I22" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="10"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="3:9">
+      <c r="C23" s="7"/>
+      <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="4">
+      <c r="F23" s="8"/>
+      <c r="G23" s="4">
         <v>48</v>
       </c>
-      <c r="F23" s="4">
+      <c r="H23" s="4">
         <v>0.96</v>
       </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2">
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="2">
         <v>11</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
-        <v>100</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4">
+        <v>100</v>
+      </c>
+      <c r="H24" s="4">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="10">
+    <row r="25" spans="3:9">
+      <c r="C25" s="7">
         <v>12</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="11">
+      <c r="F25" s="8">
         <v>0.4</v>
       </c>
-      <c r="E25" s="4">
+      <c r="G25" s="4">
         <v>35</v>
       </c>
-      <c r="F25" s="4">
+      <c r="H25" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="I25" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="10"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="3:9">
+      <c r="C26" s="7"/>
+      <c r="D26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="4">
+      <c r="F26" s="8"/>
+      <c r="G26" s="4">
         <v>24</v>
       </c>
-      <c r="F26" s="4">
+      <c r="H26" s="4">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="10"/>
-      <c r="B27" s="3" t="s">
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="7"/>
+      <c r="D27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="4">
+      <c r="F27" s="8"/>
+      <c r="G27" s="4">
         <v>20</v>
       </c>
-      <c r="F27" s="4">
+      <c r="H27" s="4">
         <v>0.08</v>
       </c>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="10"/>
-      <c r="B28" s="3" t="s">
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="7"/>
+      <c r="D28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="4">
+      <c r="F28" s="8"/>
+      <c r="G28" s="4">
         <v>15.6</v>
       </c>
-      <c r="F28" s="4">
+      <c r="H28" s="4">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="10"/>
-      <c r="B29" s="3" t="s">
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="7"/>
+      <c r="D29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="4">
+      <c r="F29" s="8"/>
+      <c r="G29" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F29" s="4">
+      <c r="H29" s="4">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="10"/>
-      <c r="B30" s="3" t="s">
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="7"/>
+      <c r="D30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="4">
+      <c r="F30" s="8"/>
+      <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="F30" s="4">
+      <c r="H30" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="10">
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="7">
         <v>13</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="11">
+      <c r="F31" s="8">
         <v>0.2</v>
       </c>
-      <c r="E31" s="4">
+      <c r="G31" s="4">
         <v>50</v>
       </c>
-      <c r="F31" s="4">
+      <c r="H31" s="4">
         <v>0.1</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="I31" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="10"/>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="3:9">
+      <c r="C32" s="7"/>
+      <c r="D32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="4">
+      <c r="F32" s="8"/>
+      <c r="G32" s="4">
         <v>50</v>
       </c>
-      <c r="F32" s="4">
+      <c r="H32" s="4">
         <v>0.1</v>
       </c>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2">
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="2">
         <v>14</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E33" s="4">
-        <v>100</v>
       </c>
       <c r="F33" s="4">
         <v>0.2</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4">
+        <v>100</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2">
+    <row r="34" spans="3:9">
+      <c r="C34" s="2">
         <v>15</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E34" s="4">
-        <v>100</v>
       </c>
       <c r="F34" s="4">
         <v>0.2</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="4">
+        <v>100</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="10">
+    <row r="35" spans="3:9">
+      <c r="C35" s="7">
         <v>16</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="11">
+      <c r="F35" s="8">
         <v>0.1</v>
       </c>
-      <c r="E35" s="4">
+      <c r="G35" s="4">
         <v>87.5</v>
       </c>
-      <c r="F35" s="4">
+      <c r="H35" s="4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="I35" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="10"/>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="3:9">
+      <c r="C36" s="7"/>
+      <c r="D36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="4">
+      <c r="F36" s="8"/>
+      <c r="G36" s="4">
         <v>10</v>
       </c>
-      <c r="F36" s="4">
+      <c r="H36" s="4">
         <v>0.01</v>
       </c>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="10"/>
-      <c r="B37" s="3" t="s">
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="7"/>
+      <c r="D37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="4">
+      <c r="F37" s="8"/>
+      <c r="G37" s="4">
         <v>2.5</v>
       </c>
-      <c r="F37" s="4">
+      <c r="H37" s="4">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2">
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="2">
         <v>17</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E38" s="4">
-        <v>100</v>
       </c>
       <c r="F38" s="4">
         <v>0.05</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4">
+        <v>100</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="10">
+    <row r="39" spans="3:9">
+      <c r="C39" s="7">
         <v>18</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="11">
+      <c r="F39" s="8">
         <v>0.03</v>
       </c>
-      <c r="E39" s="4">
+      <c r="G39" s="4">
         <v>97</v>
       </c>
-      <c r="F39" s="4">
+      <c r="H39" s="4">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="I39" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="10"/>
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="3:9">
+      <c r="C40" s="7"/>
+      <c r="D40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="4">
+      <c r="F40" s="8"/>
+      <c r="G40" s="4">
         <v>3</v>
       </c>
-      <c r="F40" s="4">
+      <c r="H40" s="4">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="10">
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="7">
         <v>19</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="11">
+      <c r="F41" s="8">
         <v>0.01</v>
       </c>
-      <c r="E41" s="4">
+      <c r="G41" s="4">
         <v>59.8</v>
       </c>
-      <c r="F41" s="4">
+      <c r="H41" s="4">
         <v>5.9800000000000001E-3</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="I41" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="10"/>
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="3:9">
+      <c r="C42" s="7"/>
+      <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="4">
+      <c r="F42" s="8"/>
+      <c r="G42" s="4">
         <v>37.5</v>
       </c>
-      <c r="F42" s="4">
+      <c r="H42" s="4">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="10"/>
-      <c r="B43" s="5" t="s">
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="7"/>
+      <c r="D43" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="4">
+      <c r="F43" s="8"/>
+      <c r="G43" s="4">
         <v>2.5</v>
       </c>
-      <c r="F43" s="4">
+      <c r="H43" s="4">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="10"/>
-      <c r="B44" s="3" t="s">
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="7"/>
+      <c r="D44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="4">
+      <c r="F44" s="8"/>
+      <c r="G44" s="4">
         <v>0.1</v>
       </c>
-      <c r="F44" s="4">
+      <c r="H44" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="10"/>
-      <c r="B45" s="3" t="s">
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="7"/>
+      <c r="D45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="4">
+      <c r="F45" s="8"/>
+      <c r="G45" s="4">
         <v>0.1</v>
       </c>
-      <c r="F45" s="4">
+      <c r="H45" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="2">
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="2">
         <v>20</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D46" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E46" s="4">
-        <v>100</v>
       </c>
       <c r="F46" s="4">
         <v>0.01</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="4">
+        <v>100</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="10">
+    <row r="47" spans="3:9">
+      <c r="C47" s="7">
         <v>21</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="11">
+      <c r="F47" s="8">
         <v>1E-4</v>
       </c>
-      <c r="E47" s="4">
+      <c r="G47" s="4">
         <v>86.95</v>
       </c>
-      <c r="F47" s="4">
+      <c r="H47" s="4">
         <v>8.6949999999999999E-5</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="I47" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="10"/>
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="3:9">
+      <c r="C48" s="7"/>
+      <c r="D48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="4">
+      <c r="F48" s="8"/>
+      <c r="G48" s="4">
         <v>5</v>
       </c>
-      <c r="F48" s="4">
+      <c r="H48" s="4">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="10"/>
-      <c r="B49" s="3" t="s">
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="7"/>
+      <c r="D49" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="4">
+      <c r="F49" s="8"/>
+      <c r="G49" s="4">
         <v>3</v>
       </c>
-      <c r="F49" s="4">
+      <c r="H49" s="4">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="10"/>
-      <c r="B50" s="3" t="s">
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="7"/>
+      <c r="D50" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="4">
+      <c r="F50" s="8"/>
+      <c r="G50" s="4">
         <v>2.5</v>
       </c>
-      <c r="F50" s="4">
+      <c r="H50" s="4">
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="10"/>
-      <c r="B51" s="6" t="s">
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="7"/>
+      <c r="D51" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="4">
+      <c r="F51" s="8"/>
+      <c r="G51" s="4">
         <v>2.5</v>
       </c>
-      <c r="F51" s="4">
+      <c r="H51" s="4">
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="10"/>
-      <c r="B52" s="3" t="s">
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="7"/>
+      <c r="D52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="4">
+      <c r="F52" s="8"/>
+      <c r="G52" s="4">
         <v>0.05</v>
       </c>
-      <c r="F52" s="4">
+      <c r="H52" s="4">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="10">
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="7">
         <v>22</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="11">
+      <c r="F53" s="8">
         <v>1E-4</v>
       </c>
-      <c r="E53" s="4">
+      <c r="G53" s="4">
         <v>65</v>
       </c>
-      <c r="F53" s="4">
+      <c r="H53" s="4">
         <v>6.4999999999999994E-5</v>
       </c>
-      <c r="G53" s="12" t="s">
+      <c r="I53" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="10"/>
-      <c r="B54" s="5" t="s">
+    <row r="54" spans="3:9">
+      <c r="C54" s="7"/>
+      <c r="D54" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="4">
+      <c r="F54" s="8"/>
+      <c r="G54" s="4">
         <v>32</v>
       </c>
-      <c r="F54" s="4">
+      <c r="H54" s="4">
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="10"/>
-      <c r="B55" s="3" t="s">
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="C55" s="7"/>
+      <c r="D55" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="4">
+      <c r="F55" s="8"/>
+      <c r="G55" s="4">
         <v>2.1</v>
       </c>
-      <c r="F55" s="4">
+      <c r="H55" s="4">
         <v>2.0999999999999998E-6</v>
       </c>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="10"/>
-      <c r="B56" s="3" t="s">
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" s="7"/>
+      <c r="D56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="E56" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="4">
+      <c r="F56" s="8"/>
+      <c r="G56" s="4">
         <v>0.9</v>
       </c>
-      <c r="F56" s="4">
+      <c r="H56" s="4">
         <v>8.9999999999999996E-7</v>
       </c>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="10">
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57" s="7">
         <v>23</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="11">
+      <c r="F57" s="8">
         <v>1E-4</v>
       </c>
-      <c r="E57" s="4">
+      <c r="G57" s="4">
         <v>94.2</v>
       </c>
-      <c r="F57" s="4">
+      <c r="H57" s="4">
         <v>9.4199999999999999E-5</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="I57" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="10"/>
-      <c r="B58" s="3" t="s">
+    <row r="58" spans="3:9">
+      <c r="C58" s="7"/>
+      <c r="D58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="E58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="4">
+      <c r="F58" s="8"/>
+      <c r="G58" s="4">
         <v>5</v>
       </c>
-      <c r="F58" s="4">
+      <c r="H58" s="4">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="10"/>
-      <c r="B59" s="3" t="s">
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="7"/>
+      <c r="D59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="4">
+      <c r="F59" s="8"/>
+      <c r="G59" s="4">
         <v>0.54</v>
       </c>
-      <c r="F59" s="4">
+      <c r="H59" s="4">
         <v>5.4000000000000002E-7</v>
       </c>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="10"/>
-      <c r="B60" s="3" t="s">
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="7"/>
+      <c r="D60" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="4">
+      <c r="F60" s="8"/>
+      <c r="G60" s="4">
         <v>0.2</v>
       </c>
-      <c r="F60" s="4">
+      <c r="H60" s="4">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="10"/>
-      <c r="B61" s="3" t="s">
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="3:9">
+      <c r="C61" s="7"/>
+      <c r="D61" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="4">
+      <c r="F61" s="8"/>
+      <c r="G61" s="4">
         <v>0.06</v>
       </c>
-      <c r="F61" s="4">
+      <c r="H61" s="4">
         <v>5.9999999999999995E-8</v>
       </c>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="8" t="s">
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9" t="s">
+      <c r="G62" s="12"/>
+      <c r="H62" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="7" t="s">
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="7" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="3:9">
+      <c r="C64" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="7" t="s">
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="3:9">
+      <c r="C65" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="7" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="3:9">
+      <c r="C66" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="D41:D45"/>
-    <mergeCell ref="G41:G45"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="C62:E62"/>
     <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
